--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C041D7-C8F1-4433-B663-EFC579E3B295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6C761-36DE-4C15-A8D7-F901B916E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43500" yWindow="-6720" windowWidth="13830" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6C761-36DE-4C15-A8D7-F901B916E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F7429-ADA2-438B-9C6A-5BB056E396D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F7429-ADA2-438B-9C6A-5BB056E396D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F6227-B5D2-485B-B532-138A9A25634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F6227-B5D2-485B-B532-138A9A25634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9489C-C95B-46BF-BAA2-4CF878EEA20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9489C-C95B-46BF-BAA2-4CF878EEA20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8342E-A0BD-427E-B118-20B39A41A942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8342E-A0BD-427E-B118-20B39A41A942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E1C68-740F-4131-83E5-E339143C757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E1C68-740F-4131-83E5-E339143C757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E70F9E4-BD0D-4852-9D71-5DE70E0BAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E70F9E4-BD0D-4852-9D71-5DE70E0BAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93422E-7FA8-4EF7-BEBB-A22ABA022FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="-10005" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93422E-7FA8-4EF7-BEBB-A22ABA022FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1AC64-EDD7-4B8E-AB78-3D6C8556A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31065" yWindow="-10005" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1AC64-EDD7-4B8E-AB78-3D6C8556A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057AA5DA-E159-43C0-B56F-F1090AC9CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="-10005" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057AA5DA-E159-43C0-B56F-F1090AC9CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988796E-BC3B-402A-95E2-F58B9DF949E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988796E-BC3B-402A-95E2-F58B9DF949E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E98E650-BFF3-4400-986B-5CE8887DF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E98E650-BFF3-4400-986B-5CE8887DF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB149408-59D8-4D0F-9CD8-5772C656359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB149408-59D8-4D0F-9CD8-5772C656359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0220B-7D40-456F-A8C1-BF561727375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0220B-7D40-456F-A8C1-BF561727375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF3EFC-5508-4C77-8423-D6F673D0B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF3EFC-5508-4C77-8423-D6F673D0B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47308EDB-BFF3-490C-93F0-1F3CCCCF479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47308EDB-BFF3-490C-93F0-1F3CCCCF479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB6EA2-93FC-4BF2-974E-6EE5DD548C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB6EA2-93FC-4BF2-974E-6EE5DD548C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D78424-C199-4D4E-B6D9-EFBA2396A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D78424-C199-4D4E-B6D9-EFBA2396A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729DF59-84FC-40FA-8DB3-A792E0D277B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2035.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729DF59-84FC-40FA-8DB3-A792E0D277B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C6115-CB3E-432B-BBD1-207A0B78D831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49890" yWindow="-5205" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
